--- a/Bausteine/NuertingerZeitung/test.xlsx
+++ b/Bausteine/NuertingerZeitung/test.xlsx
@@ -18,13 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
-    <t>1. Damen &amp;dash; Markenkleidung&amp;comma; ab Gr&amp;period; 38&amp;comma; sowie Jungen &amp;dash; Kleidung gut erhalten&amp;comma; ab Gr&amp;period; 116&amp;comma; Preis VS&amp;period;Tel&amp;period; 01577 / 3188593</t>
+    <t>1. Herren&amp;dash;Fahrrad 19 Gang&amp;comma; 26 Zoll&amp;comma; sowie Damen&amp;dash;Fahrrad&amp;comma; 7&amp;dash;Gang&amp;comma; 28 Zoll&amp;comma; gut erhalten&amp;comma; jew&amp;period; 50 €&amp;period; Tel&amp;period; 07022 / 62059</t>
   </si>
   <si>
-    <t>2. Steinwolldämmplatten&amp;comma; Isover Topdec Universal (nicht brennbar) 80x62&amp;comma;5x10cm&amp;eq;15m²&amp;eq;145€&amp;comma; 80x62&amp;comma;5x8cm&amp;eq;1&amp;comma;5m²&amp;eq;14€&amp;comma; Handy&amp;period; 0176 / 40435490</t>
+    <t>2. Prof&amp;period; Kornbeck Gemälde: Prächtiges großes Hauptwerk&amp;comma; Neckar und Brücke von Nürtingen&amp;comma; im Hintergrund Nürtingen und die Stadtkirche&amp;comma; VB 3000 €&amp;comma; Tel&amp;period; 07333 / 954757</t>
   </si>
   <si>
-    <t>3. Kaufe alte Postkarten und militärische Fotos&amp;period; Tel&amp;period; 07024 / 409568</t>
+    <t>3. Haushaltsauflösung Nürtingen Komplette Auflösung&amp;comma; Möbel&amp;comma; Elektro&amp;comma; Garten&amp;comma; Schmuck Tel&amp;period; 07022 / 9606370 oder 0172 / 7130880hgkneopor@gmail&amp;period;com</t>
   </si>
 </sst>
 </file>
